--- a/Code/Results/Cases/Case_2_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022199511381459</v>
+        <v>1.051296426740172</v>
       </c>
       <c r="D2">
-        <v>1.035358528551958</v>
+        <v>1.052279358592197</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.024741219867024</v>
+        <v>1.058009424959225</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051061013892422</v>
+        <v>1.045847733545185</v>
       </c>
       <c r="J2">
-        <v>1.043735923163792</v>
+        <v>1.056325047302772</v>
       </c>
       <c r="K2">
-        <v>1.046346297444816</v>
+        <v>1.055028530387399</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.035866303820794</v>
+        <v>1.06074283115631</v>
       </c>
       <c r="N2">
-        <v>1.045218147892868</v>
+        <v>1.057825150032118</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028606067660652</v>
+        <v>1.052553867199837</v>
       </c>
       <c r="D3">
-        <v>1.040341956403529</v>
+        <v>1.053266012509266</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.031694466780902</v>
+        <v>1.059456652714152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053520482838453</v>
+        <v>1.046256549744352</v>
       </c>
       <c r="J3">
-        <v>1.048346157039431</v>
+        <v>1.057231013098388</v>
       </c>
       <c r="K3">
-        <v>1.050483418582946</v>
+        <v>1.055827552028815</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.041937256807395</v>
+        <v>1.06200240144892</v>
       </c>
       <c r="N3">
-        <v>1.049834928829412</v>
+        <v>1.05873240240308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03263574845573</v>
+        <v>1.053366433331574</v>
       </c>
       <c r="D4">
-        <v>1.043478590924228</v>
+        <v>1.053903446821404</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.036073057872298</v>
+        <v>1.060392445772775</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055056394513384</v>
+        <v>1.046519315599123</v>
       </c>
       <c r="J4">
-        <v>1.051239931790633</v>
+        <v>1.057815645464979</v>
       </c>
       <c r="K4">
-        <v>1.053079127417602</v>
+        <v>1.056342963016663</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.045754766439633</v>
+        <v>1.062816250216769</v>
       </c>
       <c r="N4">
-        <v>1.052732813072681</v>
+        <v>1.05931786501469</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034303483703936</v>
+        <v>1.053707781027166</v>
       </c>
       <c r="D5">
-        <v>1.044777157469789</v>
+        <v>1.05417118795844</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.037886426780302</v>
+        <v>1.060785700037161</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055689351048461</v>
+        <v>1.046629361087665</v>
       </c>
       <c r="J5">
-        <v>1.052436071281818</v>
+        <v>1.058061047481508</v>
       </c>
       <c r="K5">
-        <v>1.054151782768344</v>
+        <v>1.056559258821743</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.047334435921638</v>
+        <v>1.063158114688741</v>
       </c>
       <c r="N5">
-        <v>1.053930651219142</v>
+        <v>1.059563615530231</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034581997194221</v>
+        <v>1.053765079961031</v>
       </c>
       <c r="D6">
-        <v>1.044994042678549</v>
+        <v>1.054216129088554</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.03818933434918</v>
+        <v>1.060851720320146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055794895428678</v>
+        <v>1.046647813546162</v>
       </c>
       <c r="J6">
-        <v>1.052635739270027</v>
+        <v>1.058102229507153</v>
       </c>
       <c r="K6">
-        <v>1.054330821095453</v>
+        <v>1.056595553448836</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.047598227358591</v>
+        <v>1.063215499087742</v>
       </c>
       <c r="N6">
-        <v>1.054130602758798</v>
+        <v>1.059604856039075</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03265813457809</v>
+        <v>1.053370995433722</v>
       </c>
       <c r="D7">
-        <v>1.043496020061091</v>
+        <v>1.05390702531693</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.036097393939687</v>
+        <v>1.060397701051153</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055064901470576</v>
+        <v>1.046520787685919</v>
       </c>
       <c r="J7">
-        <v>1.051255993583493</v>
+        <v>1.057818926018357</v>
       </c>
       <c r="K7">
-        <v>1.053093532185212</v>
+        <v>1.056345854673738</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.045775971458748</v>
+        <v>1.062820819311778</v>
       </c>
       <c r="N7">
-        <v>1.052748897675129</v>
+        <v>1.05932115022683</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024389475208632</v>
+        <v>1.051721611009445</v>
       </c>
       <c r="D8">
-        <v>1.037061535472545</v>
+        <v>1.052613010720724</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.027117010189789</v>
+        <v>1.058498661972866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051904047076316</v>
+        <v>1.045986261311723</v>
       </c>
       <c r="J8">
-        <v>1.045313093871784</v>
+        <v>1.056631553173869</v>
       </c>
       <c r="K8">
-        <v>1.047761838197454</v>
+        <v>1.055298898144305</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.037941777196495</v>
+        <v>1.061168755241634</v>
       </c>
       <c r="N8">
-        <v>1.04679755836417</v>
+        <v>1.058132091176709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008864366657299</v>
+        <v>1.048806722880665</v>
       </c>
       <c r="D9">
-        <v>1.025000821153967</v>
+        <v>1.050325050553344</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.010295290363744</v>
+        <v>1.055147037787856</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045881701533794</v>
+        <v>1.045030772217265</v>
       </c>
       <c r="J9">
-        <v>1.034107938200741</v>
+        <v>1.054526963400466</v>
       </c>
       <c r="K9">
-        <v>1.037700894041137</v>
+        <v>1.053441595538103</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.023223513163682</v>
+        <v>1.058248394990772</v>
       </c>
       <c r="N9">
-        <v>1.035576490086824</v>
+        <v>1.056024512644428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9977669420799203</v>
+        <v>1.046857526659786</v>
       </c>
       <c r="D10">
-        <v>1.016399426139988</v>
+        <v>1.048794386521896</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.998296368864714</v>
+        <v>1.052908766571191</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041520276777377</v>
+        <v>1.04438455568911</v>
       </c>
       <c r="J10">
-        <v>1.026069438739001</v>
+        <v>1.053115466363905</v>
       </c>
       <c r="K10">
-        <v>1.030478765043978</v>
+        <v>1.052194886561291</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.012696451176746</v>
+        <v>1.056295020329252</v>
       </c>
       <c r="N10">
-        <v>1.027526575033819</v>
+        <v>1.054611011120174</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9927572003355565</v>
+        <v>1.046012038975423</v>
       </c>
       <c r="D11">
-        <v>1.012522558423065</v>
+        <v>1.048130286666547</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9928852335706646</v>
+        <v>1.051938586746439</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039538666283066</v>
+        <v>1.044102528615657</v>
       </c>
       <c r="J11">
-        <v>1.022434423520525</v>
+        <v>1.052502231514275</v>
       </c>
       <c r="K11">
-        <v>1.027212119454859</v>
+        <v>1.051652996159128</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.007942582920629</v>
+        <v>1.055447591859822</v>
       </c>
       <c r="N11">
-        <v>1.023886397676792</v>
+        <v>1.053996905406718</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9908629973952364</v>
+        <v>1.04569776100969</v>
       </c>
       <c r="D12">
-        <v>1.011057746748564</v>
+        <v>1.047883410167977</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9908400557604751</v>
+        <v>1.051578063426907</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038787567957018</v>
+        <v>1.043997437189466</v>
       </c>
       <c r="J12">
-        <v>1.021059149440966</v>
+        <v>1.052274137670052</v>
       </c>
       <c r="K12">
-        <v>1.025976120404927</v>
+        <v>1.051451401856748</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.006144875390909</v>
+        <v>1.055132572762885</v>
       </c>
       <c r="N12">
-        <v>1.022509170550294</v>
+        <v>1.053768487643074</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.991270865873779</v>
+        <v>1.045765185015175</v>
       </c>
       <c r="D13">
-        <v>1.011373107194978</v>
+        <v>1.047936375126348</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9912803977774658</v>
+        <v>1.051655404029623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038949379979018</v>
+        <v>1.044019994801437</v>
       </c>
       <c r="J13">
-        <v>1.021355317487031</v>
+        <v>1.052323078709543</v>
       </c>
       <c r="K13">
-        <v>1.026242299119438</v>
+        <v>1.051494658689738</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.006531977560335</v>
+        <v>1.055200156667059</v>
       </c>
       <c r="N13">
-        <v>1.022805759188955</v>
+        <v>1.053817498184455</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9926013218820623</v>
+        <v>1.045986065303562</v>
       </c>
       <c r="D14">
-        <v>1.012401993545681</v>
+        <v>1.048109883881053</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.992716915208999</v>
+        <v>1.051908788980323</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039476893611049</v>
+        <v>1.044093848549983</v>
       </c>
       <c r="J14">
-        <v>1.022321266006808</v>
+        <v>1.052483383573148</v>
       </c>
       <c r="K14">
-        <v>1.027110423245503</v>
+        <v>1.051636338695014</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.00779465046605</v>
+        <v>1.055421557341451</v>
       </c>
       <c r="N14">
-        <v>1.023773079466426</v>
+        <v>1.053978030699353</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9934165546950311</v>
+        <v>1.046122126818751</v>
       </c>
       <c r="D15">
-        <v>1.013032582358632</v>
+        <v>1.048216761724161</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9935972398178682</v>
+        <v>1.052064887046039</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039799885582912</v>
+        <v>1.044139307966976</v>
       </c>
       <c r="J15">
-        <v>1.022913036876302</v>
+        <v>1.052582111358348</v>
       </c>
       <c r="K15">
-        <v>1.027642252166839</v>
+        <v>1.051723590978356</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.008568316007017</v>
+        <v>1.055557936787559</v>
       </c>
       <c r="N15">
-        <v>1.024365690718432</v>
+        <v>1.054076898689332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9980948954857488</v>
+        <v>1.046913607442641</v>
       </c>
       <c r="D16">
-        <v>1.016653355012285</v>
+        <v>1.04883843273128</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9986507106472563</v>
+        <v>1.052973132760471</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04164974124075</v>
+        <v>1.044403226157027</v>
       </c>
       <c r="J16">
-        <v>1.026307275838579</v>
+        <v>1.053156121305783</v>
       </c>
       <c r="K16">
-        <v>1.030692485542073</v>
+        <v>1.052230806443565</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.013007620219627</v>
+        <v>1.056351227104122</v>
       </c>
       <c r="N16">
-        <v>1.02776474988936</v>
+        <v>1.054651723796732</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000972979414894</v>
+        <v>1.0474096845408</v>
       </c>
       <c r="D17">
-        <v>1.018882509839492</v>
+        <v>1.049228037030163</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.001761001052437</v>
+        <v>1.053542581016993</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042784477830397</v>
+        <v>1.044568181816264</v>
       </c>
       <c r="J17">
-        <v>1.028393818738373</v>
+        <v>1.053515631969891</v>
       </c>
       <c r="K17">
-        <v>1.032567366910754</v>
+        <v>1.052548416417823</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.015738223834123</v>
+        <v>1.056848403830649</v>
       </c>
       <c r="N17">
-        <v>1.029854255919402</v>
+        <v>1.05501174500722</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002632181265483</v>
+        <v>1.047698896144131</v>
       </c>
       <c r="D18">
-        <v>1.020168170406158</v>
+        <v>1.049455160226331</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.003554596229843</v>
+        <v>1.053874635092694</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04343744654953</v>
+        <v>1.044664184451557</v>
       </c>
       <c r="J18">
-        <v>1.029596115451319</v>
+        <v>1.053725131161774</v>
       </c>
       <c r="K18">
-        <v>1.033647624800295</v>
+        <v>1.052733474658626</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.017312253506849</v>
+        <v>1.057138244174004</v>
       </c>
       <c r="N18">
-        <v>1.031058260031585</v>
+        <v>1.055221541711986</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003194687850161</v>
+        <v>1.047797485927297</v>
       </c>
       <c r="D19">
-        <v>1.020604129937153</v>
+        <v>1.049532582020159</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.004162755821092</v>
+        <v>1.053987840942427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043658611836983</v>
+        <v>1.044696882760097</v>
       </c>
       <c r="J19">
-        <v>1.030003619769236</v>
+        <v>1.053796531613548</v>
       </c>
       <c r="K19">
-        <v>1.034013751839076</v>
+        <v>1.052796541194493</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.017845859556202</v>
+        <v>1.057237046209413</v>
       </c>
       <c r="N19">
-        <v>1.031466343052374</v>
+        <v>1.055293043560591</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000666227028548</v>
+        <v>1.047356474864446</v>
       </c>
       <c r="D20">
-        <v>1.01864486228523</v>
+        <v>1.049186249273676</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.001429445093684</v>
+        <v>1.053481494527393</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042663659546969</v>
+        <v>1.04455050570229</v>
       </c>
       <c r="J20">
-        <v>1.028171490876314</v>
+        <v>1.053477080311914</v>
       </c>
       <c r="K20">
-        <v>1.032367600028396</v>
+        <v>1.05251436040559</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.015447205915916</v>
+        <v>1.056795077487043</v>
       </c>
       <c r="N20">
-        <v>1.029631612326276</v>
+        <v>1.054973138601467</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9922104794734276</v>
+        <v>1.045921027847614</v>
       </c>
       <c r="D21">
-        <v>1.012099712077263</v>
+        <v>1.048058795430057</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9922948941574328</v>
+        <v>1.051834177764615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039321978262645</v>
+        <v>1.04407210969695</v>
       </c>
       <c r="J21">
-        <v>1.02203752649766</v>
+        <v>1.052436186403124</v>
       </c>
       <c r="K21">
-        <v>1.026855421231838</v>
+        <v>1.051594626103937</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.007423727406759</v>
+        <v>1.055356367207319</v>
       </c>
       <c r="N21">
-        <v>1.023488937014629</v>
+        <v>1.053930766503935</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.986699447953282</v>
+        <v>1.045017194189809</v>
       </c>
       <c r="D22">
-        <v>1.007840109203233</v>
+        <v>1.047348760354593</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9863460662910287</v>
+        <v>1.050797542588367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037133297577512</v>
+        <v>1.043769389726015</v>
       </c>
       <c r="J22">
-        <v>1.018034722921854</v>
+        <v>1.051779933299098</v>
       </c>
       <c r="K22">
-        <v>1.023257835703382</v>
+        <v>1.051014545543987</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.002192951236992</v>
+        <v>1.054450364480502</v>
       </c>
       <c r="N22">
-        <v>1.019480448998618</v>
+        <v>1.053273581445227</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9896403591493198</v>
+        <v>1.045496459441851</v>
       </c>
       <c r="D23">
-        <v>1.010112577652554</v>
+        <v>1.047725274385045</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.9895201865562908</v>
+        <v>1.051347170013926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038302250859321</v>
+        <v>1.043930051188741</v>
       </c>
       <c r="J23">
-        <v>1.020171226935805</v>
+        <v>1.052127997459257</v>
       </c>
       <c r="K23">
-        <v>1.02517809523905</v>
+        <v>1.051322229526344</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.0049844491081</v>
+        <v>1.054930790879557</v>
       </c>
       <c r="N23">
-        <v>1.021619987093329</v>
+        <v>1.053622139896417</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000804895403785</v>
+        <v>1.047380518464606</v>
       </c>
       <c r="D24">
-        <v>1.018752289865615</v>
+        <v>1.049205131752544</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.001579324360388</v>
+        <v>1.053509097177189</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042718279566257</v>
+        <v>1.044558493436033</v>
       </c>
       <c r="J24">
-        <v>1.028271996704505</v>
+        <v>1.053494500756154</v>
       </c>
       <c r="K24">
-        <v>1.032457907149147</v>
+        <v>1.05252974946412</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.015578761942219</v>
+        <v>1.05681917384315</v>
       </c>
       <c r="N24">
-        <v>1.029732260884272</v>
+        <v>1.054990583784737</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013001310190636</v>
+        <v>1.049561319578997</v>
       </c>
       <c r="D25">
-        <v>1.028211689825002</v>
+        <v>1.050917476093795</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.014773291098853</v>
+        <v>1.056014169738531</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047496337594529</v>
+        <v>1.045279408189565</v>
       </c>
       <c r="J25">
-        <v>1.037098912884328</v>
+        <v>1.05507252444058</v>
       </c>
       <c r="K25">
-        <v>1.040387290474665</v>
+        <v>1.0539232412493</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.027146519152945</v>
+        <v>1.059004497939053</v>
       </c>
       <c r="N25">
-        <v>1.038571712297532</v>
+        <v>1.056570848443795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_176/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_176/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.051296426740172</v>
+        <v>1.022199511381459</v>
       </c>
       <c r="D2">
-        <v>1.052279358592197</v>
+        <v>1.035358528551958</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.058009424959225</v>
+        <v>1.024741219867024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045847733545185</v>
+        <v>1.051061013892422</v>
       </c>
       <c r="J2">
-        <v>1.056325047302772</v>
+        <v>1.043735923163792</v>
       </c>
       <c r="K2">
-        <v>1.055028530387399</v>
+        <v>1.046346297444816</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.06074283115631</v>
+        <v>1.035866303820794</v>
       </c>
       <c r="N2">
-        <v>1.057825150032118</v>
+        <v>1.045218147892868</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052553867199837</v>
+        <v>1.028606067660651</v>
       </c>
       <c r="D3">
-        <v>1.053266012509266</v>
+        <v>1.040341956403528</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.059456652714152</v>
+        <v>1.031694466780901</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046256549744352</v>
+        <v>1.053520482838452</v>
       </c>
       <c r="J3">
-        <v>1.057231013098388</v>
+        <v>1.04834615703943</v>
       </c>
       <c r="K3">
-        <v>1.055827552028815</v>
+        <v>1.050483418582944</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.06200240144892</v>
+        <v>1.041937256807394</v>
       </c>
       <c r="N3">
-        <v>1.05873240240308</v>
+        <v>1.049834928829411</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053366433331574</v>
+        <v>1.032635748455731</v>
       </c>
       <c r="D4">
-        <v>1.053903446821404</v>
+        <v>1.043478590924229</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.060392445772775</v>
+        <v>1.036073057872299</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046519315599123</v>
+        <v>1.055056394513385</v>
       </c>
       <c r="J4">
-        <v>1.057815645464979</v>
+        <v>1.051239931790634</v>
       </c>
       <c r="K4">
-        <v>1.056342963016663</v>
+        <v>1.053079127417603</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.062816250216769</v>
+        <v>1.045754766439634</v>
       </c>
       <c r="N4">
-        <v>1.05931786501469</v>
+        <v>1.052732813072683</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053707781027166</v>
+        <v>1.034303483703937</v>
       </c>
       <c r="D5">
-        <v>1.05417118795844</v>
+        <v>1.044777157469789</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.060785700037161</v>
+        <v>1.037886426780303</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046629361087665</v>
+        <v>1.055689351048461</v>
       </c>
       <c r="J5">
-        <v>1.058061047481508</v>
+        <v>1.052436071281818</v>
       </c>
       <c r="K5">
-        <v>1.056559258821743</v>
+        <v>1.054151782768345</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.063158114688741</v>
+        <v>1.047334435921638</v>
       </c>
       <c r="N5">
-        <v>1.059563615530231</v>
+        <v>1.053930651219143</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053765079961031</v>
+        <v>1.034581997194221</v>
       </c>
       <c r="D6">
-        <v>1.054216129088554</v>
+        <v>1.04499404267855</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.060851720320146</v>
+        <v>1.038189334349181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046647813546162</v>
+        <v>1.055794895428678</v>
       </c>
       <c r="J6">
-        <v>1.058102229507153</v>
+        <v>1.052635739270028</v>
       </c>
       <c r="K6">
-        <v>1.056595553448836</v>
+        <v>1.054330821095453</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.063215499087742</v>
+        <v>1.047598227358591</v>
       </c>
       <c r="N6">
-        <v>1.059604856039075</v>
+        <v>1.054130602758798</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053370995433722</v>
+        <v>1.032658134578088</v>
       </c>
       <c r="D7">
-        <v>1.05390702531693</v>
+        <v>1.043496020061089</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.060397701051153</v>
+        <v>1.036097393939684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046520787685919</v>
+        <v>1.055064901470574</v>
       </c>
       <c r="J7">
-        <v>1.057818926018357</v>
+        <v>1.051255993583491</v>
       </c>
       <c r="K7">
-        <v>1.056345854673738</v>
+        <v>1.05309353218521</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.062820819311778</v>
+        <v>1.045775971458746</v>
       </c>
       <c r="N7">
-        <v>1.05932115022683</v>
+        <v>1.052748897675127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051721611009445</v>
+        <v>1.024389475208633</v>
       </c>
       <c r="D8">
-        <v>1.052613010720724</v>
+        <v>1.037061535472546</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.058498661972866</v>
+        <v>1.027117010189789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045986261311723</v>
+        <v>1.051904047076317</v>
       </c>
       <c r="J8">
-        <v>1.056631553173869</v>
+        <v>1.045313093871785</v>
       </c>
       <c r="K8">
-        <v>1.055298898144305</v>
+        <v>1.047761838197455</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.061168755241634</v>
+        <v>1.037941777196495</v>
       </c>
       <c r="N8">
-        <v>1.058132091176709</v>
+        <v>1.046797558364171</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048806722880665</v>
+        <v>1.008864366657298</v>
       </c>
       <c r="D9">
-        <v>1.050325050553344</v>
+        <v>1.025000821153966</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.055147037787856</v>
+        <v>1.010295290363743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045030772217265</v>
+        <v>1.045881701533793</v>
       </c>
       <c r="J9">
-        <v>1.054526963400466</v>
+        <v>1.034107938200739</v>
       </c>
       <c r="K9">
-        <v>1.053441595538103</v>
+        <v>1.037700894041136</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.058248394990772</v>
+        <v>1.02322351316368</v>
       </c>
       <c r="N9">
-        <v>1.056024512644428</v>
+        <v>1.035576490086823</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046857526659786</v>
+        <v>0.997766942079921</v>
       </c>
       <c r="D10">
-        <v>1.048794386521896</v>
+        <v>1.016399426139989</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.052908766571191</v>
+        <v>0.9982963688647145</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04438455568911</v>
+        <v>1.041520276777378</v>
       </c>
       <c r="J10">
-        <v>1.053115466363905</v>
+        <v>1.026069438739001</v>
       </c>
       <c r="K10">
-        <v>1.052194886561291</v>
+        <v>1.030478765043978</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.056295020329252</v>
+        <v>1.012696451176746</v>
       </c>
       <c r="N10">
-        <v>1.054611011120174</v>
+        <v>1.02752657503382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046012038975423</v>
+        <v>0.9927572003355558</v>
       </c>
       <c r="D11">
-        <v>1.048130286666547</v>
+        <v>1.012522558423064</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.051938586746439</v>
+        <v>0.992885233570664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044102528615657</v>
+        <v>1.039538666283066</v>
       </c>
       <c r="J11">
-        <v>1.052502231514275</v>
+        <v>1.022434423520525</v>
       </c>
       <c r="K11">
-        <v>1.051652996159128</v>
+        <v>1.027212119454858</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.055447591859822</v>
+        <v>1.007942582920628</v>
       </c>
       <c r="N11">
-        <v>1.053996905406718</v>
+        <v>1.023886397676791</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04569776100969</v>
+        <v>0.9908629973952352</v>
       </c>
       <c r="D12">
-        <v>1.047883410167977</v>
+        <v>1.011057746748563</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.051578063426907</v>
+        <v>0.9908400557604738</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043997437189466</v>
+        <v>1.038787567957018</v>
       </c>
       <c r="J12">
-        <v>1.052274137670052</v>
+        <v>1.021059149440965</v>
       </c>
       <c r="K12">
-        <v>1.051451401856748</v>
+        <v>1.025976120404926</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.055132572762885</v>
+        <v>1.006144875390908</v>
       </c>
       <c r="N12">
-        <v>1.053768487643074</v>
+        <v>1.022509170550293</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045765185015175</v>
+        <v>0.9912708658737797</v>
       </c>
       <c r="D13">
-        <v>1.047936375126348</v>
+        <v>1.011373107194978</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.051655404029623</v>
+        <v>0.9912803977774663</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044019994801437</v>
+        <v>1.038949379979018</v>
       </c>
       <c r="J13">
-        <v>1.052323078709543</v>
+        <v>1.021355317487032</v>
       </c>
       <c r="K13">
-        <v>1.051494658689738</v>
+        <v>1.026242299119438</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.055200156667059</v>
+        <v>1.006531977560335</v>
       </c>
       <c r="N13">
-        <v>1.053817498184455</v>
+        <v>1.022805759188956</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045986065303562</v>
+        <v>0.992601321882062</v>
       </c>
       <c r="D14">
-        <v>1.048109883881053</v>
+        <v>1.012401993545681</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.051908788980323</v>
+        <v>0.9927169152089981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044093848549983</v>
+        <v>1.039476893611049</v>
       </c>
       <c r="J14">
-        <v>1.052483383573148</v>
+        <v>1.022321266006808</v>
       </c>
       <c r="K14">
-        <v>1.051636338695014</v>
+        <v>1.027110423245502</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.055421557341451</v>
+        <v>1.00779465046605</v>
       </c>
       <c r="N14">
-        <v>1.053978030699353</v>
+        <v>1.023773079466425</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046122126818751</v>
+        <v>0.9934165546950313</v>
       </c>
       <c r="D15">
-        <v>1.048216761724161</v>
+        <v>1.013032582358632</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.052064887046039</v>
+        <v>0.9935972398178688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044139307966976</v>
+        <v>1.039799885582912</v>
       </c>
       <c r="J15">
-        <v>1.052582111358348</v>
+        <v>1.022913036876302</v>
       </c>
       <c r="K15">
-        <v>1.051723590978356</v>
+        <v>1.02764225216684</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.055557936787559</v>
+        <v>1.008568316007017</v>
       </c>
       <c r="N15">
-        <v>1.054076898689332</v>
+        <v>1.024365690718432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046913607442641</v>
+        <v>0.9980948954857493</v>
       </c>
       <c r="D16">
-        <v>1.04883843273128</v>
+        <v>1.016653355012285</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.052973132760471</v>
+        <v>0.998650710647257</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044403226157027</v>
+        <v>1.041649741240751</v>
       </c>
       <c r="J16">
-        <v>1.053156121305783</v>
+        <v>1.026307275838579</v>
       </c>
       <c r="K16">
-        <v>1.052230806443565</v>
+        <v>1.030692485542073</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.056351227104122</v>
+        <v>1.013007620219628</v>
       </c>
       <c r="N16">
-        <v>1.054651723796732</v>
+        <v>1.02776474988936</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0474096845408</v>
+        <v>1.000972979414894</v>
       </c>
       <c r="D17">
-        <v>1.049228037030163</v>
+        <v>1.018882509839491</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.053542581016993</v>
+        <v>1.001761001052436</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044568181816264</v>
+        <v>1.042784477830396</v>
       </c>
       <c r="J17">
-        <v>1.053515631969891</v>
+        <v>1.028393818738373</v>
       </c>
       <c r="K17">
-        <v>1.052548416417823</v>
+        <v>1.032567366910753</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.056848403830649</v>
+        <v>1.015738223834122</v>
       </c>
       <c r="N17">
-        <v>1.05501174500722</v>
+        <v>1.029854255919401</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047698896144131</v>
+        <v>1.002632181265483</v>
       </c>
       <c r="D18">
-        <v>1.049455160226331</v>
+        <v>1.020168170406158</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.053874635092694</v>
+        <v>1.003554596229843</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044664184451557</v>
+        <v>1.04343744654953</v>
       </c>
       <c r="J18">
-        <v>1.053725131161774</v>
+        <v>1.029596115451319</v>
       </c>
       <c r="K18">
-        <v>1.052733474658626</v>
+        <v>1.033647624800295</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.057138244174004</v>
+        <v>1.017312253506849</v>
       </c>
       <c r="N18">
-        <v>1.055221541711986</v>
+        <v>1.031058260031585</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047797485927297</v>
+        <v>1.003194687850162</v>
       </c>
       <c r="D19">
-        <v>1.049532582020159</v>
+        <v>1.020604129937154</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.053987840942427</v>
+        <v>1.004162755821093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044696882760097</v>
+        <v>1.043658611836983</v>
       </c>
       <c r="J19">
-        <v>1.053796531613548</v>
+        <v>1.030003619769237</v>
       </c>
       <c r="K19">
-        <v>1.052796541194493</v>
+        <v>1.034013751839077</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.057237046209413</v>
+        <v>1.017845859556203</v>
       </c>
       <c r="N19">
-        <v>1.055293043560591</v>
+        <v>1.031466343052376</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047356474864446</v>
+        <v>1.00066622702855</v>
       </c>
       <c r="D20">
-        <v>1.049186249273676</v>
+        <v>1.018644862285232</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.053481494527393</v>
+        <v>1.001429445093687</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04455050570229</v>
+        <v>1.04266365954697</v>
       </c>
       <c r="J20">
-        <v>1.053477080311914</v>
+        <v>1.028171490876316</v>
       </c>
       <c r="K20">
-        <v>1.05251436040559</v>
+        <v>1.032367600028397</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.056795077487043</v>
+        <v>1.015447205915919</v>
       </c>
       <c r="N20">
-        <v>1.054973138601467</v>
+        <v>1.029631612326279</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045921027847614</v>
+        <v>0.9922104794734271</v>
       </c>
       <c r="D21">
-        <v>1.048058795430057</v>
+        <v>1.012099712077262</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.051834177764615</v>
+        <v>0.9922948941574324</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04407210969695</v>
+        <v>1.039321978262645</v>
       </c>
       <c r="J21">
-        <v>1.052436186403124</v>
+        <v>1.02203752649766</v>
       </c>
       <c r="K21">
-        <v>1.051594626103937</v>
+        <v>1.026855421231838</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.055356367207319</v>
+        <v>1.007423727406758</v>
       </c>
       <c r="N21">
-        <v>1.053930766503935</v>
+        <v>1.023488937014629</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045017194189809</v>
+        <v>0.9866994479532826</v>
       </c>
       <c r="D22">
-        <v>1.047348760354593</v>
+        <v>1.007840109203233</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.050797542588367</v>
+        <v>0.9863460662910295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043769389726015</v>
+        <v>1.037133297577512</v>
       </c>
       <c r="J22">
-        <v>1.051779933299098</v>
+        <v>1.018034722921854</v>
       </c>
       <c r="K22">
-        <v>1.051014545543987</v>
+        <v>1.023257835703383</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.054450364480502</v>
+        <v>1.002192951236992</v>
       </c>
       <c r="N22">
-        <v>1.053273581445227</v>
+        <v>1.019480448998618</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045496459441851</v>
+        <v>0.989640359149318</v>
       </c>
       <c r="D23">
-        <v>1.047725274385045</v>
+        <v>1.010112577652552</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.051347170013926</v>
+        <v>0.9895201865562889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043930051188741</v>
+        <v>1.03830225085932</v>
       </c>
       <c r="J23">
-        <v>1.052127997459257</v>
+        <v>1.020171226935803</v>
       </c>
       <c r="K23">
-        <v>1.051322229526344</v>
+        <v>1.025178095239048</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.054930790879557</v>
+        <v>1.004984449108098</v>
       </c>
       <c r="N23">
-        <v>1.053622139896417</v>
+        <v>1.021619987093327</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047380518464606</v>
+        <v>1.000804895403784</v>
       </c>
       <c r="D24">
-        <v>1.049205131752544</v>
+        <v>1.018752289865614</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.053509097177189</v>
+        <v>1.001579324360387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044558493436033</v>
+        <v>1.042718279566257</v>
       </c>
       <c r="J24">
-        <v>1.053494500756154</v>
+        <v>1.028271996704505</v>
       </c>
       <c r="K24">
-        <v>1.05252974946412</v>
+        <v>1.032457907149146</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.05681917384315</v>
+        <v>1.015578761942219</v>
       </c>
       <c r="N24">
-        <v>1.054990583784737</v>
+        <v>1.029732260884272</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.049561319578997</v>
+        <v>1.013001310190637</v>
       </c>
       <c r="D25">
-        <v>1.050917476093795</v>
+        <v>1.028211689825003</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.056014169738531</v>
+        <v>1.014773291098854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045279408189565</v>
+        <v>1.04749633759453</v>
       </c>
       <c r="J25">
-        <v>1.05507252444058</v>
+        <v>1.037098912884329</v>
       </c>
       <c r="K25">
-        <v>1.0539232412493</v>
+        <v>1.040387290474666</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.059004497939053</v>
+        <v>1.027146519152945</v>
       </c>
       <c r="N25">
-        <v>1.056570848443795</v>
+        <v>1.038571712297533</v>
       </c>
     </row>
   </sheetData>
